--- a/Income/IR_inc.xlsx
+++ b/Income/IR_inc.xlsx
@@ -446,19 +446,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>302199900.0</v>
+        <v>311500000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>85699900.0</v>
+        <v>85700000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2900100.0</v>
+        <v>-6399900.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1500200.0</v>
+        <v>-7799800.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>128300200.0</v>
+        <v>119000200.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>275300200.0</v>
@@ -892,19 +892,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>116000000.0</v>
+        <v>117200000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-32400000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-157600000.0</v>
+        <v>-158800000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-146200000.0</v>
+        <v>-147400000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>75200000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>159100000.0</v>
@@ -1112,16 +1112,16 @@
         <v>0.2456</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2452</v>
+        <v>0.2538</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2576</v>
+        <v>0.2681</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.3169</v>
+        <v>0.3299</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3578</v>
+        <v>0.3718</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3733</v>
@@ -1188,7 +1188,7 @@
         <v>0.0005</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0487</v>
+        <v>0.0488</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.1123</v>
@@ -1252,16 +1252,16 @@
         <v>-0.0041</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>-0.0252</v>
+        <v>-0.0251</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-0.0302</v>
+        <v>-0.0301</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0135</v>
+        <v>0.0136</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.0777</v>
+        <v>0.0779</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1071</v>
@@ -1322,16 +1322,16 @@
         <v>-0.0067</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-0.0397</v>
+        <v>-0.0398</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-0.0452</v>
+        <v>-0.0453</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0286</v>
+        <v>0.0285</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.065</v>
+        <v>0.0649</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.089</v>
@@ -1395,13 +1395,13 @@
         <v>0.1399</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1489</v>
+        <v>0.149</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.1164</v>
+        <v>0.1165</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.1227</v>
+        <v>0.1228</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.132</v>
@@ -1520,19 +1520,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>302200100.0</v>
+        <v>311500100.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>85700100.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>2900000.0</v>
+        <v>-6400000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1500100.0</v>
+        <v>-7799900.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>128300100.0</v>
+        <v>119000100.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>275300100.0</v>
@@ -1590,19 +1590,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.3081</v>
+        <v>0.3154</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>-0.0846</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-0.3628</v>
+        <v>-0.3701</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-0.2361</v>
+        <v>-0.2434</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.4021</v>
+        <v>0.3948</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>0.7616</v>
@@ -1730,19 +1730,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.318</v>
+        <v>0.3253</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>-0.0847</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-0.3592</v>
+        <v>-0.3665</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-0.2285</v>
+        <v>-0.2358</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.4155</v>
+        <v>0.4082</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0.7818</v>
@@ -1800,19 +1800,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>116000000.0</v>
+        <v>117200000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-32400000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-157600000.0</v>
+        <v>-158800000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-146200000.0</v>
+        <v>-147400000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>75200000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>159100000.0</v>
@@ -1946,16 +1946,16 @@
         <v>0.1676</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.1593</v>
+        <v>0.1513</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.1497</v>
+        <v>0.1398</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.1766</v>
+        <v>0.1644</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.198</v>
+        <v>0.1849</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.2112</v>
@@ -2016,16 +2016,16 @@
         <v>0.1862</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1501</v>
+        <v>0.1502</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0.1619</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1302</v>
+        <v>0.1303</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1399</v>
+        <v>0.14</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1526</v>
